--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -160,23 +160,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,14 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -206,56 +193,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J23" displayName="Frame0" name="Frame0" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J23" totalsRowShown="0">
   <autoFilter ref="A1:J23"/>
   <tableColumns count="10">
-    <tableColumn name="Ticker" id="1"/>
-    <tableColumn name="Preço Atual" id="2"/>
-    <tableColumn name="Date" id="3"/>
-    <tableColumn name="Open" id="4"/>
-    <tableColumn name="High" id="5"/>
-    <tableColumn name="Low" id="6"/>
-    <tableColumn name="Close" id="7"/>
-    <tableColumn name="Volume" id="8"/>
-    <tableColumn name="Dividends" id="9"/>
-    <tableColumn name="Stock Splits" id="10"/>
+    <tableColumn id="1" name="Ticker" dataDxfId="0"/>
+    <tableColumn id="2" name="Preço Atual" dataDxfId="0"/>
+    <tableColumn id="3" name="Date" dataDxfId="0"/>
+    <tableColumn id="4" name="Open" dataDxfId="1"/>
+    <tableColumn id="5" name="High" dataDxfId="1"/>
+    <tableColumn id="6" name="Low" dataDxfId="1"/>
+    <tableColumn id="7" name="Close" dataDxfId="1"/>
+    <tableColumn id="8" name="Volume" dataDxfId="1"/>
+    <tableColumn id="9" name="Dividends" dataDxfId="1"/>
+    <tableColumn id="10" name="Stock Splits" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -264,10 +239,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -305,71 +280,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,53 +366,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -449,7 +423,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -458,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -467,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -475,10 +449,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -507,7 +481,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -520,12 +494,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -543,733 +518,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>199.0700073242188</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>202.2899932861328</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>197.8699951171875</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>198.0500030517578</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>29971300</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>199.0599975585938</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>200.4799957275391</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>197.5299987792969</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>198.3699951171875</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>26200600</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>198.1399993896484</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>200.3000030517578</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>195.1999969482422</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>197.9799957275391</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>26951400</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>198.1000061035156</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>200.8999938964844</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>198</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>200.2100067138672</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>23855800</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>425.5299987792969</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>426.0700073242188</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>414.8500061035156</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>418.5799865722656</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>16896500</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>421.0799865722656</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>424.0299987792969</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>419.5400085449219</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>423.3500061035156</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>16662900</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4">
-        <v>178.9563786732192</v>
-      </c>
-      <c r="E8" s="4">
-        <v>179.184952010458</v>
-      </c>
-      <c r="F8" s="4">
-        <v>176.2432512228952</v>
-      </c>
-      <c r="G8" s="4">
-        <v>178.2507629394531</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D8" s="2">
+        <v>178.9563939924111</v>
+      </c>
+      <c r="E8" s="2">
+        <v>179.1849673492164</v>
+      </c>
+      <c r="F8" s="2">
+        <v>176.2432663098354</v>
+      </c>
+      <c r="G8" s="2">
+        <v>178.2507781982422</v>
+      </c>
+      <c r="H8" s="2">
         <v>58953100</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4">
-        <v>178.3799758772218</v>
-      </c>
-      <c r="E9" s="4">
-        <v>179.0160172845038</v>
-      </c>
-      <c r="F9" s="4">
-        <v>173.7388586270757</v>
-      </c>
-      <c r="G9" s="4">
-        <v>175.2097015380859</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="D9" s="2">
+        <v>178.3799448074533</v>
+      </c>
+      <c r="E9" s="2">
+        <v>179.0159861039513</v>
+      </c>
+      <c r="F9" s="2">
+        <v>173.7388283656852</v>
+      </c>
+      <c r="G9" s="2">
+        <v>175.2096710205078</v>
+      </c>
+      <c r="H9" s="2">
         <v>90370200</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
-        <v>175.4183932360196</v>
-      </c>
-      <c r="E10" s="4">
-        <v>176.2035160840494</v>
-      </c>
-      <c r="F10" s="4">
-        <v>172.9040408788438</v>
-      </c>
-      <c r="G10" s="4">
-        <v>173.1326293945312</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="D10" s="2">
+        <v>175.4183623155366</v>
+      </c>
+      <c r="E10" s="2">
+        <v>176.2034850251751</v>
+      </c>
+      <c r="F10" s="2">
+        <v>172.9040104015583</v>
+      </c>
+      <c r="G10" s="2">
+        <v>173.1325988769531</v>
+      </c>
+      <c r="H10" s="2">
         <v>84267900</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>43.96200180053711</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>44.53333282470703</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>40.53333282470703</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>43.02199935913086</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>233916000</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>42.68000030517578</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>43.57199859619141</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>40.86666870117188</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>42.28200149536133</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>199837500</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>38.72600173950195</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>39.63333129882812</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>36.41666793823242</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>37.36999893188477</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>283636500</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>39.66666793823242</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>40.50466537475586</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>33.46666717529297</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>36.44133377075195</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>339604500</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>2230</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>2635</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>2210</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>2465</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>1198</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>2375</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>2510</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>2375</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>2430</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>1390</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>2450</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>2870</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>2340</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>2780</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>947</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>2450</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>2730</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>2450</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>2725</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>1166</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>10.31999969482422</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>10.32999992370605</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>10.14999961853027</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>10.19999980926514</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>29510200</v>
       </c>
-      <c r="I19" s="4">
-        <v>0.064034</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="2">
+        <v>0.063363</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>7.110000133514404</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>7.590000152587891</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>6.980000019073486</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>7.300000190734863</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>37602000</v>
       </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4">
-        <v>9.241197228595905</v>
-      </c>
-      <c r="E21" s="4">
-        <v>9.355052010281447</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9.196920637150777</v>
-      </c>
-      <c r="G21" s="4">
-        <v>9.329751014709473</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="D21" s="2">
+        <v>9.241198173218374</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.355052966541995</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9.196921577247355</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.329751968383789</v>
+      </c>
+      <c r="H21" s="2">
         <v>19896800</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>9.30445154105194</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>9.462582940047911</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>9.29812614031848</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>9.399330139160156</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>24996900</v>
       </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>9.601739020590145</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>9.772520622819153</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>8.127954387147648</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>8.640299797058105</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>157468400</v>
       </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -752,16 +752,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>178.9563939924111</v>
+        <v>178.9563786732192</v>
       </c>
       <c r="E8" s="2">
-        <v>179.1849673492164</v>
+        <v>179.184952010458</v>
       </c>
       <c r="F8" s="2">
-        <v>176.2432663098354</v>
+        <v>176.2432512228952</v>
       </c>
       <c r="G8" s="2">
-        <v>178.2507781982422</v>
+        <v>178.2507629394531</v>
       </c>
       <c r="H8" s="2">
         <v>58953100</v>
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>178.3799448074533</v>
+        <v>178.3799603423375</v>
       </c>
       <c r="E9" s="2">
-        <v>179.0159861039513</v>
+        <v>179.0160016942275</v>
       </c>
       <c r="F9" s="2">
-        <v>173.7388283656852</v>
+        <v>173.7388434963805</v>
       </c>
       <c r="G9" s="2">
-        <v>175.2096710205078</v>
+        <v>175.2096862792969</v>
       </c>
       <c r="H9" s="2">
         <v>90370200</v>
@@ -812,16 +812,16 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>175.4183623155366</v>
+        <v>175.4183777757781</v>
       </c>
       <c r="E10" s="2">
-        <v>176.2034850251751</v>
+        <v>176.2035005546122</v>
       </c>
       <c r="F10" s="2">
-        <v>172.9040104015583</v>
+        <v>172.9040256402011</v>
       </c>
       <c r="G10" s="2">
-        <v>173.1325988769531</v>
+        <v>173.1326141357422</v>
       </c>
       <c r="H10" s="2">
         <v>84267900</v>
@@ -1152,16 +1152,16 @@
         <v>44</v>
       </c>
       <c r="D21" s="2">
-        <v>9.241198173218374</v>
+        <v>9.241199117840845</v>
       </c>
       <c r="E21" s="2">
-        <v>9.355052966541995</v>
+        <v>9.355053922802545</v>
       </c>
       <c r="F21" s="2">
-        <v>9.196921577247355</v>
+        <v>9.196922517343934</v>
       </c>
       <c r="G21" s="2">
-        <v>9.329751968383789</v>
+        <v>9.329752922058105</v>
       </c>
       <c r="H21" s="2">
         <v>19896800</v>
@@ -1182,16 +1182,16 @@
         <v>45</v>
       </c>
       <c r="D22" s="2">
-        <v>9.30445154105194</v>
+        <v>9.304452485099688</v>
       </c>
       <c r="E22" s="2">
-        <v>9.462582940047911</v>
+        <v>9.462583900139981</v>
       </c>
       <c r="F22" s="2">
-        <v>9.29812614031848</v>
+        <v>9.298127083724443</v>
       </c>
       <c r="G22" s="2">
-        <v>9.399330139160156</v>
+        <v>9.399331092834473</v>
       </c>
       <c r="H22" s="2">
         <v>24996900</v>
@@ -1212,16 +1212,16 @@
         <v>46</v>
       </c>
       <c r="D23" s="2">
-        <v>9.601739020590145</v>
+        <v>9.601737960796838</v>
       </c>
       <c r="E23" s="2">
-        <v>9.772520622819153</v>
+        <v>9.772519544175802</v>
       </c>
       <c r="F23" s="2">
-        <v>8.127954387147648</v>
+        <v>8.127953490023529</v>
       </c>
       <c r="G23" s="2">
-        <v>8.640299797058105</v>
+        <v>8.640298843383789</v>
       </c>
       <c r="H23" s="2">
         <v>157468400</v>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -130,13 +130,13 @@
     <t>B3SA3.SA</t>
   </si>
   <si>
-    <t>10.37</t>
+    <t>10.38</t>
   </si>
   <si>
     <t>MGLU3.SA</t>
   </si>
   <si>
-    <t>6.37</t>
+    <t>6.43</t>
   </si>
   <si>
     <t>2024-12-20</t>
@@ -782,16 +782,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>178.3799603423375</v>
+        <v>178.3799758772218</v>
       </c>
       <c r="E9" s="2">
-        <v>179.0160016942275</v>
+        <v>179.0160172845038</v>
       </c>
       <c r="F9" s="2">
-        <v>173.7388434963805</v>
+        <v>173.7388586270757</v>
       </c>
       <c r="G9" s="2">
-        <v>175.2096862792969</v>
+        <v>175.2097015380859</v>
       </c>
       <c r="H9" s="2">
         <v>90370200</v>
@@ -812,16 +812,16 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>175.4183777757781</v>
+        <v>175.4183932360196</v>
       </c>
       <c r="E10" s="2">
-        <v>176.2035005546122</v>
+        <v>176.2035160840494</v>
       </c>
       <c r="F10" s="2">
-        <v>172.9040256402011</v>
+        <v>172.9040408788438</v>
       </c>
       <c r="G10" s="2">
-        <v>173.1326141357422</v>
+        <v>173.1326293945312</v>
       </c>
       <c r="H10" s="2">
         <v>84267900</v>
@@ -1103,7 +1103,7 @@
         <v>29510200</v>
       </c>
       <c r="I19" s="2">
-        <v>0.063363</v>
+        <v>0.06403399999999999</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1182,16 +1182,16 @@
         <v>45</v>
       </c>
       <c r="D22" s="2">
-        <v>9.304452485099688</v>
+        <v>9.304450597004189</v>
       </c>
       <c r="E22" s="2">
-        <v>9.462583900139981</v>
+        <v>9.462581979955843</v>
       </c>
       <c r="F22" s="2">
-        <v>9.298127083724443</v>
+        <v>9.298125196912519</v>
       </c>
       <c r="G22" s="2">
-        <v>9.399331092834473</v>
+        <v>9.39932918548584</v>
       </c>
       <c r="H22" s="2">
         <v>24996900</v>
@@ -1212,16 +1212,16 @@
         <v>46</v>
       </c>
       <c r="D23" s="2">
-        <v>9.601737960796838</v>
+        <v>9.60173690100353</v>
       </c>
       <c r="E23" s="2">
-        <v>9.772519544175802</v>
+        <v>9.772518465532452</v>
       </c>
       <c r="F23" s="2">
-        <v>8.127953490023529</v>
+        <v>8.12795259289941</v>
       </c>
       <c r="G23" s="2">
-        <v>8.640298843383789</v>
+        <v>8.640297889709473</v>
       </c>
       <c r="H23" s="2">
         <v>157468400</v>
